--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H2">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I2">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J2">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N2">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O2">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P2">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q2">
-        <v>385.1782553262696</v>
+        <v>402.4746861614438</v>
       </c>
       <c r="R2">
-        <v>385.1782553262696</v>
+        <v>1609.898744645775</v>
       </c>
       <c r="S2">
-        <v>0.0007809311579150209</v>
+        <v>0.0007093478359367373</v>
       </c>
       <c r="T2">
-        <v>0.0007809311579150209</v>
+        <v>0.0003515240530595681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H3">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I3">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J3">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N3">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P3">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q3">
-        <v>2175.960522173046</v>
+        <v>2375.032226121473</v>
       </c>
       <c r="R3">
-        <v>2175.960522173046</v>
+        <v>14250.19335672884</v>
       </c>
       <c r="S3">
-        <v>0.004411659657990247</v>
+        <v>0.004185912873048341</v>
       </c>
       <c r="T3">
-        <v>0.004411659657990247</v>
+        <v>0.003111553283894287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H4">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I4">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J4">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N4">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O4">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P4">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q4">
-        <v>4389.604135062741</v>
+        <v>4933.221939827461</v>
       </c>
       <c r="R4">
-        <v>4389.604135062741</v>
+        <v>29599.33163896477</v>
       </c>
       <c r="S4">
-        <v>0.008899720045409631</v>
+        <v>0.008694634538601883</v>
       </c>
       <c r="T4">
-        <v>0.008899720045409631</v>
+        <v>0.006463063009514042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H5">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I5">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J5">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N5">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O5">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P5">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q5">
-        <v>3004.644832734886</v>
+        <v>3107.236204041773</v>
       </c>
       <c r="R5">
-        <v>3004.644832734886</v>
+        <v>18643.41722425064</v>
       </c>
       <c r="S5">
-        <v>0.00609177889952141</v>
+        <v>0.005476397281286862</v>
       </c>
       <c r="T5">
-        <v>0.00609177889952141</v>
+        <v>0.004070820980105262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H6">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I6">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J6">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N6">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O6">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P6">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q6">
-        <v>337.2035948010156</v>
+        <v>372.7079544636675</v>
       </c>
       <c r="R6">
-        <v>337.2035948010156</v>
+        <v>2236.247726782005</v>
       </c>
       <c r="S6">
-        <v>0.0006836647450879741</v>
+        <v>0.0006568849918406063</v>
       </c>
       <c r="T6">
-        <v>0.0006836647450879741</v>
+        <v>0.0004882883890543191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H7">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I7">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J7">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N7">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O7">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P7">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q7">
-        <v>1616.535782009796</v>
+        <v>1816.671828718834</v>
       </c>
       <c r="R7">
-        <v>1616.535782009796</v>
+        <v>7266.687314875336</v>
       </c>
       <c r="S7">
-        <v>0.003277451783945179</v>
+        <v>0.003201821815427233</v>
       </c>
       <c r="T7">
-        <v>0.003277451783945179</v>
+        <v>0.001586693191566886</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H8">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I8">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J8">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N8">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O8">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P8">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q8">
-        <v>13281.36793291726</v>
+        <v>14540.45698145962</v>
       </c>
       <c r="R8">
-        <v>13281.36793291726</v>
+        <v>87242.74188875771</v>
       </c>
       <c r="S8">
-        <v>0.02692736128046202</v>
+        <v>0.02562705692549388</v>
       </c>
       <c r="T8">
-        <v>0.02692736128046202</v>
+        <v>0.01904959695804577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H9">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I9">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J9">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N9">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P9">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q9">
-        <v>75029.5010241509</v>
+        <v>85804.2880730317</v>
       </c>
       <c r="R9">
-        <v>75029.5010241509</v>
+        <v>772238.5926572853</v>
       </c>
       <c r="S9">
-        <v>0.1521188548479837</v>
+        <v>0.1512271160186277</v>
       </c>
       <c r="T9">
-        <v>0.1521188548479837</v>
+        <v>0.1686195736984906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H10">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I10">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J10">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N10">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O10">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P10">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q10">
-        <v>151358.3562712793</v>
+        <v>178225.6222874115</v>
       </c>
       <c r="R10">
-        <v>151358.3562712793</v>
+        <v>1604030.600586703</v>
       </c>
       <c r="S10">
-        <v>0.3068720904894318</v>
+        <v>0.3141165490028894</v>
       </c>
       <c r="T10">
-        <v>0.3068720904894318</v>
+        <v>0.3502427341005697</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H11">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I11">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J11">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N11">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O11">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P11">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q11">
-        <v>103603.4432875449</v>
+        <v>112257.0832640641</v>
       </c>
       <c r="R11">
-        <v>103603.4432875449</v>
+        <v>1010313.749376577</v>
       </c>
       <c r="S11">
-        <v>0.2100512056735715</v>
+        <v>0.1978492606364627</v>
       </c>
       <c r="T11">
-        <v>0.2100512056735715</v>
+        <v>0.2206036778547873</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H12">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I12">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J12">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N12">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O12">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P12">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q12">
-        <v>11627.14911583223</v>
+        <v>13465.05548016731</v>
       </c>
       <c r="R12">
-        <v>11627.14911583223</v>
+        <v>121185.4993215058</v>
       </c>
       <c r="S12">
-        <v>0.0235735088798981</v>
+        <v>0.02373169864847961</v>
       </c>
       <c r="T12">
-        <v>0.0235735088798981</v>
+        <v>0.02646105417202274</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H13">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I13">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J13">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N13">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O13">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P13">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q13">
-        <v>55739.92353076109</v>
+        <v>65632.04962490458</v>
       </c>
       <c r="R13">
-        <v>55739.92353076109</v>
+        <v>393792.2977494275</v>
       </c>
       <c r="S13">
-        <v>0.1130101256315734</v>
+        <v>0.1156742373378576</v>
       </c>
       <c r="T13">
-        <v>0.1130101256315734</v>
+        <v>0.08598519939772802</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H14">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I14">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J14">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N14">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O14">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P14">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q14">
-        <v>6.322752992484302</v>
+        <v>12.3577756364925</v>
       </c>
       <c r="R14">
-        <v>6.322752992484302</v>
+        <v>74.146653818955</v>
       </c>
       <c r="S14">
-        <v>1.281909024549932E-05</v>
+        <v>2.178015588593172E-05</v>
       </c>
       <c r="T14">
-        <v>1.281909024549932E-05</v>
+        <v>1.619004447200726E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H15">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I15">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J15">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N15">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P15">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q15">
-        <v>35.71868534334426</v>
+        <v>72.924127625943</v>
       </c>
       <c r="R15">
-        <v>35.71868534334426</v>
+        <v>656.317148633487</v>
       </c>
       <c r="S15">
-        <v>7.241798808386089E-05</v>
+        <v>0.000128526274813436</v>
       </c>
       <c r="T15">
-        <v>7.241798808386089E-05</v>
+        <v>0.000143307934705487</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H16">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I16">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J16">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N16">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O16">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P16">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q16">
-        <v>72.05594370139029</v>
+        <v>151.472010522808</v>
       </c>
       <c r="R16">
-        <v>72.05594370139029</v>
+        <v>1363.248094705272</v>
       </c>
       <c r="S16">
-        <v>0.000146090104441959</v>
+        <v>0.0002669642254873164</v>
       </c>
       <c r="T16">
-        <v>0.000146090104441959</v>
+        <v>0.000297667475777784</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H17">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I17">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J17">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N17">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O17">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P17">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q17">
-        <v>49.32165002781595</v>
+        <v>95.40606944838299</v>
       </c>
       <c r="R17">
-        <v>49.32165002781595</v>
+        <v>858.6546250354469</v>
       </c>
       <c r="S17">
-        <v>9.999737195412454E-05</v>
+        <v>0.0001681499265056729</v>
       </c>
       <c r="T17">
-        <v>9.999737195412454E-05</v>
+        <v>0.0001874886572678315</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H18">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I18">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J18">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N18">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O18">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P18">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q18">
-        <v>5.535242471822832</v>
+        <v>11.443803641729</v>
       </c>
       <c r="R18">
-        <v>5.535242471822832</v>
+        <v>102.994232775561</v>
       </c>
       <c r="S18">
-        <v>1.122244896508881E-05</v>
+        <v>2.016931157973302E-05</v>
       </c>
       <c r="T18">
-        <v>1.122244896508881E-05</v>
+        <v>2.248896104021247E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H19">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I19">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J19">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N19">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O19">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P19">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q19">
-        <v>26.53565280963905</v>
+        <v>55.7799624084645</v>
       </c>
       <c r="R19">
-        <v>26.53565280963905</v>
+        <v>334.679774450787</v>
       </c>
       <c r="S19">
-        <v>5.379981291287889E-05</v>
+        <v>9.831027138736687E-05</v>
       </c>
       <c r="T19">
-        <v>5.379981291287889E-05</v>
+        <v>7.307788218562076E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H20">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I20">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J20">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N20">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O20">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P20">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q20">
-        <v>20.11550523497027</v>
+        <v>20.9985624133375</v>
       </c>
       <c r="R20">
-        <v>20.11550523497027</v>
+        <v>125.991374480025</v>
       </c>
       <c r="S20">
-        <v>4.078325964139555E-05</v>
+        <v>3.700924633980224E-05</v>
       </c>
       <c r="T20">
-        <v>4.078325964139555E-05</v>
+        <v>2.751042495999281E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H21">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I21">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J21">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N21">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P21">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q21">
-        <v>113.6371139066099</v>
+        <v>123.914035214365</v>
       </c>
       <c r="R21">
-        <v>113.6371139066099</v>
+        <v>1115.226316929285</v>
       </c>
       <c r="S21">
-        <v>0.00023039401035253</v>
+        <v>0.0002183942388024873</v>
       </c>
       <c r="T21">
-        <v>0.00023039401035253</v>
+        <v>0.000243511510465793</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H22">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I22">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J22">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N22">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O22">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P22">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q22">
-        <v>229.2421852409788</v>
+        <v>257.3840600766623</v>
       </c>
       <c r="R22">
-        <v>229.2421852409788</v>
+        <v>2316.45654068996</v>
       </c>
       <c r="S22">
-        <v>0.0004647779636770109</v>
+        <v>0.0004536305817423651</v>
       </c>
       <c r="T22">
-        <v>0.0004647779636770109</v>
+        <v>0.000505802116206289</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H23">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I23">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J23">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N23">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O23">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P23">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q23">
-        <v>156.9142287404274</v>
+        <v>162.1157692818983</v>
       </c>
       <c r="R23">
-        <v>156.9142287404274</v>
+        <v>1459.041923537085</v>
       </c>
       <c r="S23">
-        <v>0.0003181363658231594</v>
+        <v>0.000285723485390099</v>
       </c>
       <c r="T23">
-        <v>0.0003181363658231594</v>
+        <v>0.0003185842167101229</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H24">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I24">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J24">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N24">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O24">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P24">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q24">
-        <v>17.6100820403919</v>
+        <v>19.44552418537278</v>
       </c>
       <c r="R24">
-        <v>17.6100820403919</v>
+        <v>175.009717668355</v>
       </c>
       <c r="S24">
-        <v>3.570362960165743E-05</v>
+        <v>3.427206970730242E-05</v>
       </c>
       <c r="T24">
-        <v>3.570362960165743E-05</v>
+        <v>3.821366125304178E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H25">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I25">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J25">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N25">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O25">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P25">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q25">
-        <v>84.4217801391477</v>
+        <v>94.78235052179751</v>
       </c>
       <c r="R25">
-        <v>84.4217801391477</v>
+        <v>568.694103130785</v>
       </c>
       <c r="S25">
-        <v>0.000171161267817331</v>
+        <v>0.0001670506432811157</v>
       </c>
       <c r="T25">
-        <v>0.000171161267817331</v>
+        <v>0.0001241752978244576</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H26">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I26">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J26">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N26">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O26">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P26">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q26">
-        <v>333.6435517608504</v>
+        <v>398.026125580135</v>
       </c>
       <c r="R26">
-        <v>333.6435517608504</v>
+        <v>2388.15675348081</v>
       </c>
       <c r="S26">
-        <v>0.0006764469219239208</v>
+        <v>0.000701507400426418</v>
       </c>
       <c r="T26">
-        <v>0.0006764469219239208</v>
+        <v>0.0005214579762343175</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H27">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I27">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J27">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N27">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P27">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q27">
-        <v>1884.829133187302</v>
+        <v>2348.780948454226</v>
       </c>
       <c r="R27">
-        <v>1884.829133187302</v>
+        <v>21139.02853608803</v>
       </c>
       <c r="S27">
-        <v>0.003821404186498319</v>
+        <v>0.004139645896157362</v>
       </c>
       <c r="T27">
-        <v>0.003821404186498319</v>
+        <v>0.004615741836846108</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H28">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I28">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J28">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N28">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O28">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P28">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q28">
-        <v>3802.299569600246</v>
+        <v>4878.694941198879</v>
       </c>
       <c r="R28">
-        <v>3802.299569600246</v>
+        <v>43908.25447078991</v>
       </c>
       <c r="S28">
-        <v>0.007708987110688527</v>
+        <v>0.008598532572920011</v>
       </c>
       <c r="T28">
-        <v>0.007708987110688527</v>
+        <v>0.009587439971412039</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H29">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I29">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J29">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N29">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O29">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P29">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q29">
-        <v>2602.640102111661</v>
+        <v>3072.891861479639</v>
       </c>
       <c r="R29">
-        <v>2602.640102111661</v>
+        <v>27656.02675331675</v>
       </c>
       <c r="S29">
-        <v>0.005276732838556762</v>
+        <v>0.005415866554980893</v>
       </c>
       <c r="T29">
-        <v>0.005276732838556762</v>
+        <v>0.006038739174238454</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H30">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I30">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J30">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N30">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O30">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P30">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q30">
-        <v>292.0876334014187</v>
+        <v>368.5884061502558</v>
       </c>
       <c r="R30">
-        <v>292.0876334014187</v>
+        <v>3317.295655352302</v>
       </c>
       <c r="S30">
-        <v>0.0005921942129667033</v>
+        <v>0.0006496244291726147</v>
       </c>
       <c r="T30">
-        <v>0.0005921942129667033</v>
+        <v>0.0007243369919037458</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H31">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I31">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J31">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N31">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O31">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P31">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q31">
-        <v>1400.252305004582</v>
+        <v>1796.592119449439</v>
       </c>
       <c r="R31">
-        <v>1400.252305004582</v>
+        <v>10779.55271669663</v>
       </c>
       <c r="S31">
-        <v>0.002838947003885624</v>
+        <v>0.003166432016251713</v>
       </c>
       <c r="T31">
-        <v>0.002838947003885624</v>
+        <v>0.002353733161010837</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H32">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I32">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J32">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N32">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O32">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P32">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q32">
-        <v>1925.948703830873</v>
+        <v>2181.834083197789</v>
       </c>
       <c r="R32">
-        <v>1925.948703830873</v>
+        <v>8727.336332791156</v>
       </c>
       <c r="S32">
-        <v>0.00390477222057504</v>
+        <v>0.0038454077697412</v>
       </c>
       <c r="T32">
-        <v>0.00390477222057504</v>
+        <v>0.001905628319992134</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H33">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I33">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J33">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N33">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P33">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q33">
-        <v>10880.12703031866</v>
+        <v>12875.16069412209</v>
       </c>
       <c r="R33">
-        <v>10880.12703031866</v>
+        <v>77250.96416473258</v>
       </c>
       <c r="S33">
-        <v>0.02205895603543898</v>
+        <v>0.02269202931199942</v>
       </c>
       <c r="T33">
-        <v>0.02205895603543898</v>
+        <v>0.01686787576936789</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H34">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I34">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J34">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N34">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O34">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P34">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q34">
-        <v>21948.6751324878</v>
+        <v>26743.22668824229</v>
       </c>
       <c r="R34">
-        <v>21948.6751324878</v>
+        <v>160459.3601294538</v>
       </c>
       <c r="S34">
-        <v>0.04449992710880148</v>
+        <v>0.04713402017452788</v>
       </c>
       <c r="T34">
-        <v>0.04449992710880148</v>
+        <v>0.03503656662361165</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H35">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I35">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J35">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N35">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O35">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P35">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q35">
-        <v>15023.67213376601</v>
+        <v>16844.47267773015</v>
       </c>
       <c r="R35">
-        <v>15023.67213376601</v>
+        <v>101066.8360663809</v>
       </c>
       <c r="S35">
-        <v>0.03045980273631858</v>
+        <v>0.02968780559940724</v>
       </c>
       <c r="T35">
-        <v>0.03045980273631858</v>
+        <v>0.02206811078157479</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H36">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I36">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J36">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N36">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O36">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P36">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q36">
-        <v>1686.068248541222</v>
+        <v>2020.467239526134</v>
       </c>
       <c r="R36">
-        <v>1686.068248541222</v>
+        <v>12122.8034371568</v>
       </c>
       <c r="S36">
-        <v>0.003418425654744502</v>
+        <v>0.003561004240063024</v>
       </c>
       <c r="T36">
-        <v>0.003418425654744502</v>
+        <v>0.002647034177054077</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H37">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I37">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J37">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N37">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O37">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P37">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q37">
-        <v>8082.919923454098</v>
+        <v>9848.262885020467</v>
       </c>
       <c r="R37">
-        <v>8082.919923454098</v>
+        <v>39393.05154008187</v>
       </c>
       <c r="S37">
-        <v>0.01638774756329528</v>
+        <v>0.01735722569747689</v>
       </c>
       <c r="T37">
-        <v>0.01638774756329528</v>
+        <v>0.008601537945046922</v>
       </c>
     </row>
   </sheetData>
